--- a/biology/Botanique/Gringet/Gringet.xlsx
+++ b/biology/Botanique/Gringet/Gringet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Gringet B[1] est un cépage cultivé en France. Il est endémique du vignoble de Savoie.
+Le Gringet B est un cépage cultivé en France. Il est endémique du vignoble de Savoie.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Régulièrement assimilé à une variante du savagnin jaune ou d'une autre variété de la famille des Traminers, les origines de ce cépage sont encore méconnues et les différents tests ADN visant à identifier des liens de parenté avec d'autres cépages ont montré une parenté avec l'altesse[2],[3].
-Il est essentiellement cultivé dans la vallée de l'Arve et plus précisément dans le vignoble d'Ayze (AOC). Seule cette appellation exploite ce cépage sur une superficie qui ne représente qu'une vingtaine d'hectares. (30 hectares en 1994[4]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Régulièrement assimilé à une variante du savagnin jaune ou d'une autre variété de la famille des Traminers, les origines de ce cépage sont encore méconnues et les différents tests ADN visant à identifier des liens de parenté avec d'autres cépages ont montré une parenté avec l'altesse,.
+Il est essentiellement cultivé dans la vallée de l'Arve et plus précisément dans le vignoble d'Ayze (AOC). Seule cette appellation exploite ce cépage sur une superficie qui ne représente qu'une vingtaine d'hectares. (30 hectares en 1994).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jeunes feuilles sont vertes. Les feuilles adultes sont entières ou légèrement trilobées, le sinus pétiolaire est presque fermé ou fermé. Le limbe est plan et bordé de dents courtes ou moyennes et droites ou convexes. Les grappes sont grosses et les baies petites de forme arrondie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes feuilles sont vertes. Les feuilles adultes sont entières ou légèrement trilobées, le sinus pétiolaire est presque fermé ou fermé. Le limbe est plan et bordé de dents courtes ou moyennes et droites ou convexes. Les grappes sont grosses et les baies petites de forme arrondie.
 </t>
         </is>
       </c>
@@ -577,13 +593,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culturales
-Le Gringet est moyennement fertile et son port retombant nécessite un palissage et une taille courte ou en guyot simple. Assez exigeant quant au sol et au site, il apprécie les éboulis.
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Gringet est moyennement fertile et son port retombant nécessite un palissage et une taille courte ou en guyot simple. Assez exigeant quant au sol et au site, il apprécie les éboulis.
 Maturité moyenne (deux semaines après le chasselas).
-Sensibilité aux maladies
-Le gringet craint l'érinose, l'oïdium et plus encore le mildiou.
-Technologiques
-Ce cépage donne le plus souvent des vins effervescents. Les arômes sont légers, marqués par des senteurs florales[4].
 </t>
         </is>
       </c>
@@ -609,10 +626,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gringet craint l'érinose, l'oïdium et plus encore le mildiou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gringet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gringet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Technologiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cépage donne le plus souvent des vins effervescents. Les arômes sont légers, marqués par des senteurs florales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gringet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gringet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
